--- a/research-list.xlsx
+++ b/research-list.xlsx
@@ -1338,9 +1338,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1417,9 +1414,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1432,6 +1426,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1717,8 +1714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1761,10 +1758,10 @@
       <c r="C2" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1778,10 +1775,10 @@
       <c r="C3" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>167</v>
       </c>
     </row>
@@ -1795,10 +1792,10 @@
       <c r="C4" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1812,10 +1809,10 @@
       <c r="C5" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>172</v>
       </c>
     </row>
@@ -1829,10 +1826,10 @@
       <c r="C6" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>405</v>
       </c>
     </row>
@@ -1846,10 +1843,10 @@
       <c r="C7" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>181</v>
       </c>
     </row>
@@ -1863,10 +1860,10 @@
       <c r="C8" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>178</v>
       </c>
     </row>
@@ -1880,10 +1877,10 @@
       <c r="C9" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>176</v>
       </c>
     </row>
@@ -1897,10 +1894,10 @@
       <c r="C10" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1914,10 +1911,10 @@
       <c r="C11" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>188</v>
       </c>
     </row>
@@ -1931,10 +1928,10 @@
       <c r="C12" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>190</v>
       </c>
     </row>
@@ -1948,10 +1945,10 @@
       <c r="C13" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>193</v>
       </c>
     </row>
@@ -1965,10 +1962,10 @@
       <c r="C14" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>198</v>
       </c>
     </row>
@@ -1982,10 +1979,10 @@
       <c r="C15" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>201</v>
       </c>
     </row>
@@ -1999,10 +1996,10 @@
       <c r="C16" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2016,10 +2013,10 @@
       <c r="C17" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>206</v>
       </c>
     </row>
@@ -2033,10 +2030,10 @@
       <c r="C18" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>210</v>
       </c>
     </row>
@@ -2050,10 +2047,10 @@
       <c r="C19" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2067,10 +2064,10 @@
       <c r="C20" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2084,10 +2081,10 @@
       <c r="C21" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>245</v>
       </c>
     </row>
@@ -2095,22 +2092,25 @@
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>2004</v>
+      </c>
       <c r="C22" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="8" t="s">
         <v>248</v>
       </c>
     </row>
@@ -2132,10 +2132,10 @@
       <c r="C24" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>250</v>
       </c>
     </row>
@@ -2149,10 +2149,10 @@
       <c r="C25" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>253</v>
       </c>
     </row>
@@ -2166,10 +2166,10 @@
       <c r="C26" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>257</v>
       </c>
     </row>
@@ -2183,8 +2183,8 @@
       <c r="C27" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="6" t="s">
+      <c r="D27" s="6"/>
+      <c r="E27" s="5" t="s">
         <v>259</v>
       </c>
     </row>
@@ -2198,10 +2198,10 @@
       <c r="C28" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>262</v>
       </c>
     </row>
@@ -2215,10 +2215,10 @@
       <c r="C29" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>265</v>
       </c>
     </row>
@@ -2232,10 +2232,10 @@
       <c r="C30" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>268</v>
       </c>
     </row>
@@ -2249,10 +2249,10 @@
       <c r="C31" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>271</v>
       </c>
     </row>
@@ -2266,10 +2266,10 @@
       <c r="C32" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>274</v>
       </c>
     </row>
@@ -2283,10 +2283,10 @@
       <c r="C33" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="5" t="s">
         <v>276</v>
       </c>
     </row>
@@ -2300,10 +2300,10 @@
       <c r="C34" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="5" t="s">
         <v>280</v>
       </c>
     </row>
@@ -2317,10 +2317,10 @@
       <c r="C35" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="5" t="s">
         <v>283</v>
       </c>
     </row>
@@ -2334,10 +2334,10 @@
       <c r="C36" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="5" t="s">
         <v>286</v>
       </c>
     </row>
@@ -2351,10 +2351,10 @@
       <c r="C37" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="5" t="s">
         <v>289</v>
       </c>
     </row>
@@ -2368,10 +2368,10 @@
       <c r="C38" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="5" t="s">
         <v>292</v>
       </c>
     </row>
@@ -2385,10 +2385,10 @@
       <c r="C39" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="5" t="s">
         <v>295</v>
       </c>
     </row>
@@ -2402,10 +2402,10 @@
       <c r="C40" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="5" t="s">
         <v>301</v>
       </c>
     </row>
@@ -2419,10 +2419,10 @@
       <c r="C41" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="5" t="s">
         <v>298</v>
       </c>
     </row>
@@ -2436,10 +2436,10 @@
       <c r="C42" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="5" t="s">
         <v>304</v>
       </c>
     </row>
@@ -2453,10 +2453,10 @@
       <c r="C43" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="5" t="s">
         <v>310</v>
       </c>
     </row>
@@ -2470,10 +2470,10 @@
       <c r="C44" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="5" t="s">
         <v>313</v>
       </c>
     </row>
@@ -2487,10 +2487,10 @@
       <c r="C45" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="5" t="s">
         <v>315</v>
       </c>
     </row>
@@ -2504,10 +2504,10 @@
       <c r="C46" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="5" t="s">
         <v>319</v>
       </c>
     </row>
@@ -2521,13 +2521,13 @@
       <c r="C47" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="4" t="s">
         <v>322</v>
       </c>
     </row>
@@ -2538,13 +2538,13 @@
       <c r="B48">
         <v>1997</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="8" t="s">
         <v>402</v>
       </c>
       <c r="G48" s="2" t="s">
@@ -2561,10 +2561,10 @@
       <c r="C49" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="5" t="s">
         <v>325</v>
       </c>
     </row>
@@ -2578,10 +2578,10 @@
       <c r="C50" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="5" t="s">
         <v>328</v>
       </c>
     </row>
@@ -2595,10 +2595,10 @@
       <c r="C51" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="5" t="s">
         <v>307</v>
       </c>
     </row>
@@ -2612,10 +2612,10 @@
       <c r="C52" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="5" t="s">
         <v>330</v>
       </c>
     </row>
@@ -2629,10 +2629,10 @@
       <c r="C53" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="5" t="s">
         <v>333</v>
       </c>
     </row>
@@ -2646,10 +2646,10 @@
       <c r="C54" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="5" t="s">
         <v>417</v>
       </c>
     </row>
@@ -2663,10 +2663,10 @@
       <c r="C55" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="5" t="s">
         <v>337</v>
       </c>
     </row>
@@ -2680,10 +2680,10 @@
       <c r="C56" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="5" t="s">
         <v>421</v>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       <c r="C57" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="5" t="s">
         <v>339</v>
       </c>
     </row>
@@ -2711,10 +2711,10 @@
       <c r="C58" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="5" t="s">
         <v>398</v>
       </c>
     </row>
@@ -2728,10 +2728,10 @@
       <c r="C59" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="5" t="s">
         <v>414</v>
       </c>
     </row>
@@ -2745,10 +2745,10 @@
       <c r="C60" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="5" t="s">
         <v>396</v>
       </c>
     </row>
@@ -2762,10 +2762,10 @@
       <c r="C61" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" s="5" t="s">
         <v>393</v>
       </c>
     </row>
@@ -2779,10 +2779,10 @@
       <c r="C62" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="5" t="s">
         <v>390</v>
       </c>
     </row>
@@ -2796,10 +2796,10 @@
       <c r="C63" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E63" s="5" t="s">
         <v>387</v>
       </c>
     </row>
@@ -2813,10 +2813,10 @@
       <c r="C64" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E64" s="5" t="s">
         <v>383</v>
       </c>
     </row>
@@ -2830,10 +2830,10 @@
       <c r="C65" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="5" t="s">
         <v>381</v>
       </c>
     </row>
@@ -2847,10 +2847,10 @@
       <c r="C66" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E66" s="5" t="s">
         <v>377</v>
       </c>
     </row>
@@ -2864,10 +2864,10 @@
       <c r="C67" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E67" s="5" t="s">
         <v>373</v>
       </c>
     </row>
@@ -2881,10 +2881,10 @@
       <c r="C68" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E68" s="5" t="s">
         <v>372</v>
       </c>
     </row>
@@ -2898,10 +2898,10 @@
       <c r="C69" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="E69" s="5" t="s">
         <v>369</v>
       </c>
     </row>
@@ -2915,10 +2915,10 @@
       <c r="C70" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E70" s="5" t="s">
         <v>366</v>
       </c>
     </row>
@@ -2932,10 +2932,10 @@
       <c r="C71" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E71" s="5" t="s">
         <v>363</v>
       </c>
     </row>
@@ -2949,10 +2949,10 @@
       <c r="C72" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E72" s="5" t="s">
         <v>359</v>
       </c>
     </row>
@@ -2966,10 +2966,10 @@
       <c r="C73" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D73" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E73" s="5" t="s">
         <v>355</v>
       </c>
     </row>
@@ -2983,10 +2983,10 @@
       <c r="C74" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D74" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E74" s="5" t="s">
         <v>354</v>
       </c>
     </row>
@@ -3000,10 +3000,10 @@
       <c r="C75" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D75" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E75" s="5" t="s">
         <v>351</v>
       </c>
     </row>
@@ -3017,10 +3017,10 @@
       <c r="C76" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="D76" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E76" s="5" t="s">
         <v>345</v>
       </c>
     </row>
@@ -3034,7 +3034,7 @@
       <c r="C77" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="E77" s="5" t="s">
         <v>348</v>
       </c>
     </row>
@@ -3048,10 +3048,10 @@
       <c r="C78" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="D78" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="E78" s="5" t="s">
         <v>342</v>
       </c>
     </row>
@@ -3059,13 +3059,13 @@
       <c r="A79" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="9" t="s">
         <v>117</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D79" s="5" t="s">
         <v>217</v>
       </c>
       <c r="E79" s="2" t="s">
@@ -3076,13 +3076,13 @@
       <c r="A80" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="9" t="s">
         <v>118</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D80" s="5" t="s">
         <v>218</v>
       </c>
       <c r="E80" s="2" t="s">
@@ -3093,13 +3093,13 @@
       <c r="A81" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="9" t="s">
         <v>118</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D81" s="5" t="s">
         <v>219</v>
       </c>
       <c r="E81" s="2" t="s">
@@ -3110,13 +3110,13 @@
       <c r="A82" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="9" t="s">
         <v>118</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D82" s="5" t="s">
         <v>220</v>
       </c>
       <c r="E82" s="2" t="s">
@@ -3127,13 +3127,13 @@
       <c r="A83" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="9" t="s">
         <v>118</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D83" s="5" t="s">
         <v>221</v>
       </c>
       <c r="E83" s="2" t="s">
@@ -3144,13 +3144,13 @@
       <c r="A84" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="9" t="s">
         <v>117</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D84" s="5" t="s">
         <v>222</v>
       </c>
       <c r="E84" s="2" t="s">
@@ -3161,13 +3161,13 @@
       <c r="A85" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="9" t="s">
         <v>119</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="D85" s="5" t="s">
         <v>223</v>
       </c>
       <c r="E85" s="2" t="s">
@@ -3178,13 +3178,13 @@
       <c r="A86" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="9" t="s">
         <v>118</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D86" s="5" t="s">
         <v>224</v>
       </c>
       <c r="E86" s="2" t="s">
@@ -3195,13 +3195,13 @@
       <c r="A87" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="9" t="s">
         <v>118</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="D87" s="5" t="s">
         <v>225</v>
       </c>
       <c r="E87" s="2" t="s">
@@ -3212,13 +3212,13 @@
       <c r="A88" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="9" t="s">
         <v>120</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D88" s="5" t="s">
         <v>226</v>
       </c>
       <c r="E88" s="2" t="s">
@@ -3229,13 +3229,13 @@
       <c r="A89" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="9" t="s">
         <v>119</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="D89" s="5" t="s">
         <v>227</v>
       </c>
       <c r="E89" s="2" t="s">
@@ -3246,13 +3246,13 @@
       <c r="A90" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="9" t="s">
         <v>117</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="D90" s="5" t="s">
         <v>228</v>
       </c>
       <c r="E90" s="2" t="s">
@@ -3263,13 +3263,13 @@
       <c r="A91" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="9" t="s">
         <v>118</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D91" s="5" t="s">
         <v>229</v>
       </c>
       <c r="E91" s="2" t="s">
@@ -3280,13 +3280,13 @@
       <c r="A92" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="9" t="s">
         <v>120</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D92" s="5" t="s">
         <v>230</v>
       </c>
       <c r="E92" s="2" t="s">
@@ -3297,13 +3297,13 @@
       <c r="A93" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="9" t="s">
         <v>117</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D93" s="5" t="s">
         <v>231</v>
       </c>
       <c r="E93" s="2" t="s">
@@ -3314,13 +3314,13 @@
       <c r="A94" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="9" t="s">
         <v>119</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D94" s="5" t="s">
         <v>232</v>
       </c>
       <c r="E94" s="2" t="s">
@@ -3331,13 +3331,13 @@
       <c r="A95" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="9" t="s">
         <v>118</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D95" s="6" t="s">
+      <c r="D95" s="5" t="s">
         <v>233</v>
       </c>
       <c r="E95" s="2" t="s">
@@ -3348,13 +3348,13 @@
       <c r="A96" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="9" t="s">
         <v>117</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D96" s="5" t="s">
         <v>234</v>
       </c>
       <c r="E96" s="2" t="s">
@@ -3365,13 +3365,13 @@
       <c r="A97" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="9" t="s">
         <v>117</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D97" s="5" t="s">
         <v>235</v>
       </c>
       <c r="E97" s="2" t="s">
@@ -3382,13 +3382,13 @@
       <c r="A98" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="9" t="s">
         <v>120</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D98" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E98" s="2" t="s">
@@ -3399,13 +3399,13 @@
       <c r="A99" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="9" t="s">
         <v>119</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D99" s="6" t="s">
+      <c r="D99" s="5" t="s">
         <v>237</v>
       </c>
       <c r="E99" s="2" t="s">
@@ -3416,13 +3416,13 @@
       <c r="A100" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="9" t="s">
         <v>117</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="D100" s="5" t="s">
         <v>238</v>
       </c>
       <c r="E100" s="2" t="s">
@@ -3433,13 +3433,13 @@
       <c r="A101" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="9" t="s">
         <v>117</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="D101" s="5" t="s">
         <v>239</v>
       </c>
       <c r="E101" s="2" t="s">
@@ -3450,13 +3450,13 @@
       <c r="A102" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="9" t="s">
         <v>118</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="D102" s="5" t="s">
         <v>240</v>
       </c>
       <c r="E102" s="2" t="s">
@@ -3467,13 +3467,13 @@
       <c r="A103" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="D103" s="5" t="s">
         <v>241</v>
       </c>
       <c r="E103" s="2" t="s">
@@ -3484,13 +3484,13 @@
       <c r="A104" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="9" t="s">
         <v>122</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="D104" s="5" t="s">
         <v>242</v>
       </c>
       <c r="E104" s="2" t="s">

--- a/research-list.xlsx
+++ b/research-list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Aditya\Masters Document\Spring 2025\SCOR Ocean Trace Elements Research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents 20250613\Aditya\Masters Document\Spring 2025\SCOR Ocean Trace Elements Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="419">
   <si>
     <t>Achterberg et al. (2018)</t>
   </si>
@@ -86,12 +86,6 @@
     <t>Buck et al. (2018)</t>
   </si>
   <si>
-    <t>Chen et al., submitted</t>
-  </si>
-  <si>
-    <t>Chen, Yin (Thesis, 2004)</t>
-  </si>
-  <si>
     <t>Chuang et al., 2005</t>
   </si>
   <si>
@@ -221,84 +215,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>https://www.frontiersin.org/articles/10.3389/fmars.2023.1308689/full;http://dx.doi.org/10.3389/fmars.2023.1308689</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.5194/acp-22-9461-2022</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1021/acs.estlett.2c00316;http://dx.doi.org/10.1021/acs.estlett.2c00316</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.gca.2022.06.032;http://dx.doi.org/10.1016/j.gca.2022.06.032</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/s41612-022-00277-z;http://dx.doi.org/10.1038/s41612-022-00277-z</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5194/acp-23-10117-2023;http://dx.doi.org/10.5194/acp-23-10117-2023</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5194/acp-21-16027-2021;http://dx.doi.org/10.5194/acp-21-16027-2021</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.scitotenv.2021.151495;http://dx.doi.org/10.1016/j.scitotenv.2021.151495;https://www.ncbi.nlm.nih.gov/pubmed/34752860</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1021/acsearthspacechem.2c00067;http://dx.doi.org/10.1021/acsearthspacechem.2c00067</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.1007/s00216-024-05131-0;https://www.ncbi.nlm.nih.gov/pubmed/38227013</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.1016/j.atmosenv.2021.118739</t>
-  </si>
-  <si>
-    <t>https://pubs.acs.org/doi/10.1021/acsearthspacechem.2c00270;http://dx.doi.org/10.1021/acsearthspacechem.2c00270</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.1016/j.envpol.2022.118840;https://www.ncbi.nlm.nih.gov/pubmed/35026325</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.1016/j.scitotenv.2023.169158;https://www.ncbi.nlm.nih.gov/pubmed/38092217</t>
-  </si>
-  <si>
-    <t>https://agupubs.onlinelibrary.wiley.com/doi/10.1029/2022GL102594;http://dx.doi.org/10.1029/2022GL102594</t>
-  </si>
-  <si>
-    <t>https://linkinghub.elsevier.com/retrieve/pii/S1352231020308220;http://dx.doi.org/10.1016/j.atmosenv.2020.118090</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.1016/j.envpol.2022.120329;https://www.ncbi.nlm.nih.gov/pubmed/36195196</t>
-  </si>
-  <si>
-    <t>https://linkinghub.elsevier.com/retrieve/pii/S1352231022005726;http://dx.doi.org/10.1016/j.atmosenv.2022.119507</t>
-  </si>
-  <si>
-    <t>https://www.mdpi.com/2073-4433/14/1/102;http://dx.doi.org/10.3390/atmos14010102</t>
-  </si>
-  <si>
-    <t>https://acp.copernicus.org/articles/24/1525/2024/;http://dx.doi.org/10.5194/acp-24-1525-2024</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.1016/j.atmosenv.2020.118092</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.1021/acs.est.3c01084;https://www.ncbi.nlm.nih.gov/pubmed/37435964</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.1016/j.marchem.2023.104277</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.1029/2022JD036586</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.1007/s10533-011-9680-1</t>
-  </si>
-  <si>
-    <t>https://linkinghub.elsevier.com/retrieve/pii/S0304420308001643;http://dx.doi.org/10.1016/j.marchem.2008.10.003</t>
-  </si>
-  <si>
     <t>Godzilla mineral dust and La Soufrière volcanic ash fallout immediately stimulate marine microbial phosphate uptake</t>
   </si>
   <si>
@@ -564,15 +480,6 @@
   </si>
   <si>
     <t>https://doi.org/10.1029/2005GL024764</t>
-  </si>
-  <si>
-    <t>Mineral particle size as a control on aerosol iron solubility</t>
-  </si>
-  <si>
-    <t>https://agupubs.onlinelibrary.wiley.com/doi/10.1029/2006GL026557</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1029/2006GL026557</t>
   </si>
   <si>
     <t>https://agupubs.onlinelibrary.wiley.com/doi/10.1002/gbc.20062</t>
@@ -644,12 +551,6 @@
     </r>
   </si>
   <si>
-    <t>Present Transport and Deposition Patterns of African Dusts to the North-Western Mediterranean</t>
-  </si>
-  <si>
-    <t>https://link.springer.com/chapter/10.1007/978-94-009-0995-3_9</t>
-  </si>
-  <si>
     <t>https://doi.org/10.3402/tellusb.v41i3.15092</t>
   </si>
   <si>
@@ -659,30 +560,9 @@
     <t>Open</t>
   </si>
   <si>
-    <t>https://dx.doi.org/10.1007/BF00115254</t>
-  </si>
-  <si>
     <t>https://link.springer.com/article/10.1007/BF00115254</t>
   </si>
   <si>
-    <t>Assessment of the African airborne dust mass over the western Mediterranean Sea using Meteosat data</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1029/91JD02427</t>
-  </si>
-  <si>
-    <t>https://agupubs.onlinelibrary.wiley.com/doi/abs/10.1029/91JD02427?casa_token=MV5gpUIiuO0AAAAA:Bju02eOkLCysIZ_i_Vt9GkoPfX5TALHOIoZAxikokryDRysvk20YpeWAAUXef125yuzrUdhhul-q4Q</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.2118/160301-MS</t>
-  </si>
-  <si>
-    <t>https://onepetro.org/SPEAPOG/proceedings-abstract/12APOG/All-12APOG/155951</t>
-  </si>
-  <si>
-    <t>Development of MEG Regeneration Unit Compatible Corrosion Inhibitor for Wet Gas Systems</t>
-  </si>
-  <si>
     <t>Biogeochemical iron budgets of the Southern Ocean south of Australia: Decoupling of iron and nutrient cycles in the subantarctic zone by the summertime supply</t>
   </si>
   <si>
@@ -893,24 +773,6 @@
     <t>https://agupubs.onlinelibrary.wiley.com/doi/full/10.1029/2005GL022962</t>
   </si>
   <si>
-    <t>Chemical characterization of the Saharan dust end-member: Some biogeochemical implications for the western Mediterranean Sea</t>
-  </si>
-  <si>
-    <t>https://agupubs.onlinelibrary.wiley.com/doi/full/10.1029/2001JD000582</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1029/2001JD000582</t>
-  </si>
-  <si>
-    <t>Major Impact of Dust Deposition on the Productivity of the Arabian Sea</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1029/2019GL082770</t>
-  </si>
-  <si>
-    <t>https://agupubs.onlinelibrary.wiley.com/doi/full/10.1029/2019GL082770</t>
-  </si>
-  <si>
     <t>Atmospheric Trace Metal Deposition near the Great Barrier Reef, Australia</t>
   </si>
   <si>
@@ -992,15 +854,6 @@
     <t>https://agupubs.onlinelibrary.wiley.com/doi/10.1029/95JD02930</t>
   </si>
   <si>
-    <t>Contribution of sea ice loss to Arctic amplification</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1029/2010GL045022</t>
-  </si>
-  <si>
-    <t>https://agupubs.onlinelibrary.wiley.com/doi/full/10.1029/2010GL045022</t>
-  </si>
-  <si>
     <t>Influence of Atmospheric Processes on the Solubility and Composition of Iron in Saharan Dust</t>
   </si>
   <si>
@@ -1028,12 +881,6 @@
     <t>https://analyticalsciencejournals.onlinelibrary.wiley.com/doi/abs/10.1002/(SICI)1097-4539(199807/08)27:4%3C236::AID-XRS292%3E3.0.CO;2-F?casa_token=dJ8QDVwf4SYAAAAA:wIjrYOfm7Hqy2NQ6mAATPnMe1UEFyifSdtvY1mQXUL22W0qWRwhBOzkOIOemNsX5klhGIXO_AB0LLg</t>
   </si>
   <si>
-    <t>Multi-elemental composition and sources of the high Arctic atmospheric aerosol during summer and autumn</t>
-  </si>
-  <si>
-    <t>https://onlinelibrary.wiley.com/doi/abs/10.1034/j.1600-0889.1996.t01-1-00011.x</t>
-  </si>
-  <si>
     <t>https://www.sciencedirect.com/science/article/abs/pii/0168583X9500954X</t>
   </si>
   <si>
@@ -1055,15 +902,6 @@
     <t>https://agupubs.onlinelibrary.wiley.com/doi/full/10.1029/2005JD006549</t>
   </si>
   <si>
-    <t>Detailed mass size distributions of atmospheric aerosol species in the Negev desert, Israel, during ARACHNE-96</t>
-  </si>
-  <si>
-    <t>https://www.sciencedirect.com/science/article/abs/pii/S0168583X98010696</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/S0168-583X(98)01069-6</t>
-  </si>
-  <si>
     <t>Nuclear microprobe analysis of atmospheric aerosol samples: Comparison with bulk measurements and analyses of individual particles</t>
   </si>
   <si>
@@ -1088,24 +926,6 @@
     <t>https://www.researchgate.net/publication/252824243_Behaviour_of_metals_during_reclaimed_water_aquifer_storage_and_recovery</t>
   </si>
   <si>
-    <t>Development of the Gulf of Guayaquil (Ecuador) during the Quaternary as an effect of the North Andean block tectonic escape</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1029/2004TC001723</t>
-  </si>
-  <si>
-    <t>https://agupubs.onlinelibrary.wiley.com/doi/full/10.1029/2004TC001723</t>
-  </si>
-  <si>
-    <t>Revisiting atmospheric dust export to the Southern Hemisphere ocean: Biogeochemical implications</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1029/2007GB002984</t>
-  </si>
-  <si>
-    <t>https://agupubs.onlinelibrary.wiley.com/doi/full/10.1029/2007GB002984</t>
-  </si>
-  <si>
     <t>Wagener, T. (2008). </t>
   </si>
   <si>
@@ -1292,18 +1112,9 @@
     <t>https://doi.org/10.1029/2003JD003958</t>
   </si>
   <si>
-    <t>https://agupubs.onlinelibrary.wiley.com/doi/10.1029/2003JD003958</t>
-  </si>
-  <si>
     <t>Maria Kanakidou, Stelios Myriokefalitakis and Kostas Tsigaridis (2018)</t>
   </si>
   <si>
-    <t>Guieu et al.</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.3402/tellusb.v48i2.15892</t>
-  </si>
-  <si>
     <t>Long-term aerosol study in southern Norway, and the relationship of aerosol components to source regions</t>
   </si>
   <si>
@@ -1332,13 +1143,193 @@
   </si>
   <si>
     <t>https://www.sciencedirect.com/science/article/abs/pii/S0021850200902374?via%3Dihub</t>
+  </si>
+  <si>
+    <t>Min_Latitude</t>
+  </si>
+  <si>
+    <t>Max_Latitude</t>
+  </si>
+  <si>
+    <t>Min_Longitude</t>
+  </si>
+  <si>
+    <t>Max_Longitude</t>
+  </si>
+  <si>
+    <t>Long-term study of atmospheric aerosols in Cuiabá, Brazil: multielemental composition, sources and source apportionment</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0021850299801414</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S0021-8502(99)80141-4</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/0021-8502(96)00096-1</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/0021850296000961</t>
+  </si>
+  <si>
+    <t>Anthropogenic and natural radiatively active aerosol types at Sede Boker, Israel</t>
+  </si>
+  <si>
+    <t>Trends in the solubility of iron, aluminium, manganese and phosphorus in aerosol collected over the Atlantic Ocean</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0304420305001027</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.marchem.2005.06.004</t>
+  </si>
+  <si>
+    <t>African dust observed over Canary Islands: Source-regions identification and transport pattern for some summer situations</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/abs/10.1029/JD094iD12p14855</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/JD094iD12p14855</t>
+  </si>
+  <si>
+    <t>Seasonal variability of the elemental composition of atmospheric aerosol particles over the northwestern Mediterranean</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/doi/abs/10.3402/tellusb.v41i3.15092</t>
+  </si>
+  <si>
+    <t>Iron from a submarine source impacts the productive layer of the Western Tropical South Pacific (WTSP)</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41598-018-27407-z</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-018-27407-z</t>
+  </si>
+  <si>
+    <t>Guieu et al. (2018)</t>
+  </si>
+  <si>
+    <t>Impact of high Saharan dust inputs on dissolved iron concentrations in the Mediterranean Sea</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/2001GL014454</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/full/10.1029/2001GL014454</t>
+  </si>
+  <si>
+    <t>Dust iron dissolution in seawater: Results from a one-year time-series in the Mediterranean Sea</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/2008GL034581</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/full/10.1029/2008GL034581</t>
+  </si>
+  <si>
+    <t>Atmospheric trace metals over the Atlantic and South Indian Oceans: Investigation of metal concentrations and lead isotope ratios in coastal and remote marine aerosols</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.atmosenv.2006.04.041</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S1352231006004274</t>
+  </si>
+  <si>
+    <t>Input and cycling of iron in the Gulf of Aqaba, Red Sea</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/2005GB002646</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/full/10.1029/2005GB002646</t>
+  </si>
+  <si>
+    <t>Zanna et. Al. (2006)</t>
+  </si>
+  <si>
+    <t>Determination of various types of labile atmospheric iron over remote oceans</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/10.1029/2003JD003515</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/2003JD003515</t>
+  </si>
+  <si>
+    <t>Chen and Seifert (2003)</t>
+  </si>
+  <si>
+    <t>Chen and Seifert (2004)</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/full/10.1029/2003JD003958</t>
+  </si>
+  <si>
+    <t>Atmospheric pathways of phosphorous to the Bay of Bengal: contribution from anthropogenic sources and mineral dust</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/doi/full/10.3402/tellusb.v64i0.17174</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3402/tellusb.v64i0.17174</t>
+  </si>
+  <si>
+    <t>https://b.tellusjournals.se/articles/10.3402/tellusb.v64i0.17174</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/BF00115254</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/doi/10.1021/acsearthspacechem.2c00270</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/35026325</t>
+  </si>
+  <si>
+    <t>https://linkinghub.elsevier.com/retrieve/pii/S0304420308001643</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/37435964</t>
+  </si>
+  <si>
+    <t>https://acp.copernicus.org/articles/24/1525/2024/</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/2073-4433/14/1/102</t>
+  </si>
+  <si>
+    <t>https://linkinghub.elsevier.com/retrieve/pii/S1352231022005726</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/36195196</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/10.1029/2022GL102594</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/38092217</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/38227013</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/34752860</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/articles/10.3389/fmars.2023.1308689/full</t>
+  </si>
+  <si>
+    <t>https://linkinghub.elsevier.com/retrieve/pii/S1352231020308220</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1376,6 +1367,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1391,12 +1387,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1405,7 +1416,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1429,6 +1440,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1712,10 +1726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:M105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1725,30 +1739,43 @@
     <col min="3" max="3" width="27.44140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="29.109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="27.5546875" style="2"/>
-    <col min="7" max="7" width="51.5546875" customWidth="1"/>
+    <col min="7" max="7" width="51.5546875" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1756,16 +1783,16 @@
         <v>2018</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1773,16 +1800,16 @@
         <v>2010</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1790,16 +1817,16 @@
         <v>1995</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1807,16 +1834,16 @@
         <v>1996</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1824,16 +1851,16 @@
         <v>2002</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>403</v>
+        <v>343</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>404</v>
+        <v>344</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1841,16 +1868,16 @@
         <v>2006</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>180</v>
+        <v>369</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>182</v>
+        <v>371</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1858,16 +1885,16 @@
         <v>2006</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1875,16 +1902,16 @@
         <v>2006</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1892,16 +1919,16 @@
         <v>2013</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1909,16 +1936,16 @@
         <v>2017</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1926,16 +1953,16 @@
         <v>2002</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1943,16 +1970,16 @@
         <v>1989</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>192</v>
+        <v>372</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>194</v>
+        <v>374</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1960,16 +1987,16 @@
         <v>1992</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>195</v>
+        <v>375</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1977,16 +2004,16 @@
         <v>1992</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>200</v>
+        <v>404</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1994,13 +2021,13 @@
         <v>2012</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>204</v>
+        <v>400</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>202</v>
+        <v>402</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>203</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
@@ -2011,13 +2038,13 @@
         <v>2009</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
@@ -2028,13 +2055,13 @@
         <v>2006</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
@@ -2045,13 +2072,13 @@
         <v>2010</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
@@ -2062,13 +2089,13 @@
         <v>2013</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
@@ -2079,1422 +2106,1448 @@
         <v>2018</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B22">
+        <v>2006</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B23">
+        <v>2003</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B24">
+        <v>2004</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B25">
+        <v>2005</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26">
         <v>2004</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="C26" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B27">
+        <v>1991</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28">
+        <v>1994</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29">
+        <v>1993</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30">
+        <v>2007</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31">
+        <v>2013</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32">
+        <v>2020</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33">
         <v>2005</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>2004</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>1991</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>1994</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>1993</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>2007</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>2013</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="C33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B31">
-        <v>2020</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>2005</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33">
+      <c r="B34">
         <v>2002</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B34">
-        <v>2019</v>
-      </c>
       <c r="C34" s="2" t="s">
-        <v>278</v>
+        <v>381</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>279</v>
+        <v>382</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>32</v>
+        <v>380</v>
       </c>
       <c r="B35">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>281</v>
+        <v>377</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>282</v>
+        <v>379</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>283</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B36">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>285</v>
+        <v>236</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37">
+        <v>2021</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38">
+        <v>2016</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39">
+        <v>1999</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B37">
-        <v>2016</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38">
-        <v>1999</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39">
+      <c r="B40">
         <v>2000</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40">
-        <v>2005</v>
-      </c>
       <c r="C40" s="2" t="s">
-        <v>299</v>
+        <v>247</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>300</v>
+        <v>248</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>301</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B41">
+        <v>2005</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42">
         <v>2007</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42">
-        <v>1995</v>
-      </c>
       <c r="C42" s="2" t="s">
-        <v>302</v>
+        <v>250</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>303</v>
+        <v>251</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>304</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B43">
+        <v>1995</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44">
         <v>2010</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44">
-        <v>2016</v>
-      </c>
       <c r="C44" s="2" t="s">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>312</v>
+        <v>402</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>313</v>
+        <v>403</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45">
+        <v>2016</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46">
+        <v>1992</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47">
+        <v>1998</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48">
+        <v>1996</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49">
+        <v>1997</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50">
+        <v>2002</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51">
+        <v>2006</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52">
+        <v>1996</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53">
+        <v>1999</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B45">
-        <v>1992</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46">
-        <v>1998</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B47">
-        <v>1996</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B48">
+      <c r="B54">
         <v>1997</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B49">
-        <v>2002</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B50">
-        <v>2006</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B51">
-        <v>1996</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B52">
-        <v>1999</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B53">
-        <v>1997</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B54">
+      <c r="C54" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55">
         <v>2000</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B55">
+      <c r="C55" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56">
         <v>2007</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="E55" s="5" t="s">
+      <c r="C56" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57">
+        <v>2000</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58">
+        <v>2003</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59">
+        <v>2001</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B56">
-        <v>2000</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B57">
-        <v>2003</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="D59" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E59" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="E57" s="5" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B58">
-        <v>2001</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B59">
-        <v>2002</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="B60">
         <v>2002</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>394</v>
+        <v>334</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>395</v>
+        <v>335</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61">
+        <v>2002</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62">
+        <v>2007</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63">
+        <v>2003</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B61">
-        <v>2007</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
+      <c r="B64">
+        <v>2015</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B62">
+      <c r="B65">
+        <v>1989</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B66">
+        <v>1969</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67">
+        <v>1986</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B68">
+        <v>1999</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B69">
+        <v>1979</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B70">
+        <v>2018</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B71">
+        <v>2012</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B72">
+        <v>2011</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B73">
+        <v>1985</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B74">
         <v>2003</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B63">
-        <v>2015</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B64">
-        <v>1989</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B65">
-        <v>1969</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B66">
-        <v>1986</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B67">
-        <v>1999</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B68">
-        <v>1979</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B69">
+      <c r="C74" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B75">
         <v>2018</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B70">
-        <v>2012</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B71">
-        <v>2011</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B72">
-        <v>1985</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B73">
-        <v>2003</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="B74">
-        <v>2018</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B75">
-        <v>1999</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>349</v>
+        <v>292</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>350</v>
+        <v>293</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>351</v>
+        <v>294</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B76">
-        <v>2008</v>
+        <v>1999</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>343</v>
+        <v>289</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>344</v>
+        <v>290</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>345</v>
+        <v>291</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>346</v>
+        <v>58</v>
       </c>
       <c r="B77">
         <v>2008</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>347</v>
+        <v>384</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>385</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>61</v>
+        <v>286</v>
       </c>
       <c r="B78">
+        <v>2008</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B79">
         <v>2006</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="C79" s="2" t="s">
-        <v>91</v>
+        <v>387</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="E79" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="D82" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>68</v>
+        <v>179</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>70</v>
+        <v>181</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>72</v>
+        <v>183</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="E87" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="E88" s="2" t="s">
+      <c r="D90" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="D91" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>77</v>
+        <v>188</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>80</v>
+        <v>191</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E95" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="E96" s="2" t="s">
+      <c r="D98" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="E97" s="2" t="s">
+      <c r="D99" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="E98" s="2" t="s">
+      <c r="D100" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="D101" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>87</v>
+        <v>198</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>88</v>
+        <v>199</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>89</v>
+        <v>200</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>90</v>
+        <v>201</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -3511,165 +3564,173 @@
     <hyperlink ref="E9" r:id="rId10"/>
     <hyperlink ref="E8" r:id="rId11"/>
     <hyperlink ref="D8" r:id="rId12"/>
-    <hyperlink ref="E7" r:id="rId13"/>
-    <hyperlink ref="D7" r:id="rId14"/>
-    <hyperlink ref="E10" r:id="rId15"/>
-    <hyperlink ref="D10" r:id="rId16"/>
-    <hyperlink ref="D11" r:id="rId17" tooltip="Persistent link using digital object identifier"/>
-    <hyperlink ref="E11" r:id="rId18"/>
-    <hyperlink ref="D12" r:id="rId19"/>
-    <hyperlink ref="E12" r:id="rId20"/>
-    <hyperlink ref="E13" r:id="rId21"/>
-    <hyperlink ref="D13" r:id="rId22"/>
-    <hyperlink ref="D14" r:id="rId23"/>
-    <hyperlink ref="E14" r:id="rId24"/>
-    <hyperlink ref="D15" r:id="rId25"/>
-    <hyperlink ref="E15" r:id="rId26"/>
-    <hyperlink ref="D16" r:id="rId27"/>
-    <hyperlink ref="E16" r:id="rId28"/>
-    <hyperlink ref="E17" r:id="rId29"/>
-    <hyperlink ref="D17" r:id="rId30"/>
-    <hyperlink ref="D18" r:id="rId31"/>
-    <hyperlink ref="E18" r:id="rId32"/>
-    <hyperlink ref="D19" r:id="rId33"/>
-    <hyperlink ref="E19" r:id="rId34"/>
-    <hyperlink ref="D20" r:id="rId35"/>
-    <hyperlink ref="E20" r:id="rId36"/>
-    <hyperlink ref="D79" r:id="rId37"/>
-    <hyperlink ref="D80" r:id="rId38"/>
-    <hyperlink ref="D81" r:id="rId39"/>
-    <hyperlink ref="D82" r:id="rId40"/>
-    <hyperlink ref="D83" r:id="rId41"/>
-    <hyperlink ref="D84" r:id="rId42"/>
-    <hyperlink ref="D85" r:id="rId43"/>
-    <hyperlink ref="D86" r:id="rId44"/>
-    <hyperlink ref="D87" r:id="rId45"/>
-    <hyperlink ref="D88" r:id="rId46"/>
-    <hyperlink ref="D89" r:id="rId47"/>
-    <hyperlink ref="D90" r:id="rId48"/>
-    <hyperlink ref="D91" r:id="rId49"/>
-    <hyperlink ref="D92" r:id="rId50"/>
-    <hyperlink ref="D93" r:id="rId51"/>
-    <hyperlink ref="D94" r:id="rId52"/>
-    <hyperlink ref="D95" r:id="rId53"/>
-    <hyperlink ref="D96" r:id="rId54"/>
-    <hyperlink ref="D97" r:id="rId55"/>
-    <hyperlink ref="D98" r:id="rId56"/>
-    <hyperlink ref="D99" r:id="rId57"/>
-    <hyperlink ref="D100" r:id="rId58"/>
-    <hyperlink ref="D101" r:id="rId59"/>
-    <hyperlink ref="D102" r:id="rId60"/>
-    <hyperlink ref="D103" r:id="rId61"/>
-    <hyperlink ref="D104" r:id="rId62"/>
-    <hyperlink ref="D21" r:id="rId63"/>
-    <hyperlink ref="E21" r:id="rId64"/>
-    <hyperlink ref="H22" r:id="rId65"/>
-    <hyperlink ref="I22" r:id="rId66"/>
-    <hyperlink ref="E24" r:id="rId67"/>
-    <hyperlink ref="D24" r:id="rId68"/>
-    <hyperlink ref="E25" r:id="rId69"/>
-    <hyperlink ref="D25" r:id="rId70"/>
-    <hyperlink ref="D26" r:id="rId71"/>
-    <hyperlink ref="E26" r:id="rId72"/>
-    <hyperlink ref="E27" r:id="rId73"/>
-    <hyperlink ref="D28" r:id="rId74"/>
-    <hyperlink ref="E28" r:id="rId75"/>
-    <hyperlink ref="D29" r:id="rId76"/>
-    <hyperlink ref="E29" r:id="rId77"/>
-    <hyperlink ref="D30" r:id="rId78"/>
-    <hyperlink ref="E30" r:id="rId79"/>
-    <hyperlink ref="D31" r:id="rId80"/>
-    <hyperlink ref="E31" r:id="rId81"/>
-    <hyperlink ref="D32" r:id="rId82"/>
-    <hyperlink ref="E32" r:id="rId83"/>
-    <hyperlink ref="E33" r:id="rId84"/>
-    <hyperlink ref="D33" r:id="rId85"/>
-    <hyperlink ref="D34" r:id="rId86"/>
-    <hyperlink ref="E34" r:id="rId87"/>
-    <hyperlink ref="D35" r:id="rId88"/>
-    <hyperlink ref="E35" r:id="rId89"/>
-    <hyperlink ref="D36" r:id="rId90"/>
-    <hyperlink ref="E36" r:id="rId91"/>
-    <hyperlink ref="D37" r:id="rId92"/>
-    <hyperlink ref="E37" r:id="rId93"/>
-    <hyperlink ref="D38" r:id="rId94"/>
-    <hyperlink ref="E38" r:id="rId95"/>
-    <hyperlink ref="D39" r:id="rId96"/>
-    <hyperlink ref="E39" r:id="rId97"/>
-    <hyperlink ref="D41" r:id="rId98"/>
-    <hyperlink ref="E41" r:id="rId99"/>
-    <hyperlink ref="D40" r:id="rId100"/>
-    <hyperlink ref="E40" r:id="rId101"/>
-    <hyperlink ref="D42" r:id="rId102"/>
-    <hyperlink ref="E42" r:id="rId103"/>
-    <hyperlink ref="D51" r:id="rId104"/>
-    <hyperlink ref="E51" r:id="rId105"/>
-    <hyperlink ref="D43" r:id="rId106"/>
-    <hyperlink ref="E43" r:id="rId107"/>
-    <hyperlink ref="D44" r:id="rId108"/>
-    <hyperlink ref="E44" r:id="rId109"/>
-    <hyperlink ref="E45" r:id="rId110"/>
-    <hyperlink ref="D45" r:id="rId111"/>
-    <hyperlink ref="D46" r:id="rId112"/>
-    <hyperlink ref="E46" r:id="rId113"/>
-    <hyperlink ref="E47" r:id="rId114"/>
-    <hyperlink ref="G47" r:id="rId115"/>
-    <hyperlink ref="D49" r:id="rId116"/>
-    <hyperlink ref="E49" r:id="rId117"/>
-    <hyperlink ref="D50" r:id="rId118"/>
-    <hyperlink ref="E50" r:id="rId119"/>
-    <hyperlink ref="E52" r:id="rId120"/>
-    <hyperlink ref="D52" r:id="rId121"/>
-    <hyperlink ref="E53" r:id="rId122"/>
-    <hyperlink ref="D53" r:id="rId123"/>
-    <hyperlink ref="D55" r:id="rId124"/>
-    <hyperlink ref="E55" r:id="rId125"/>
-    <hyperlink ref="E57" r:id="rId126"/>
-    <hyperlink ref="D78" r:id="rId127"/>
-    <hyperlink ref="E78" r:id="rId128"/>
-    <hyperlink ref="D76" r:id="rId129"/>
-    <hyperlink ref="E76" r:id="rId130"/>
-    <hyperlink ref="E77" r:id="rId131"/>
-    <hyperlink ref="D75" r:id="rId132"/>
-    <hyperlink ref="E75" r:id="rId133"/>
-    <hyperlink ref="D74" r:id="rId134"/>
-    <hyperlink ref="E74" r:id="rId135"/>
-    <hyperlink ref="E73" r:id="rId136"/>
-    <hyperlink ref="D73" r:id="rId137"/>
-    <hyperlink ref="E72" r:id="rId138"/>
-    <hyperlink ref="D72" r:id="rId139"/>
-    <hyperlink ref="D71" r:id="rId140"/>
-    <hyperlink ref="E71" r:id="rId141"/>
-    <hyperlink ref="D70" r:id="rId142"/>
-    <hyperlink ref="E70" r:id="rId143"/>
-    <hyperlink ref="D69" r:id="rId144"/>
-    <hyperlink ref="E69" r:id="rId145"/>
-    <hyperlink ref="D68" r:id="rId146"/>
-    <hyperlink ref="E68" r:id="rId147"/>
-    <hyperlink ref="E67" r:id="rId148"/>
-    <hyperlink ref="D67" r:id="rId149"/>
-    <hyperlink ref="E66" r:id="rId150"/>
-    <hyperlink ref="D66" r:id="rId151"/>
-    <hyperlink ref="D65" r:id="rId152"/>
-    <hyperlink ref="E65" r:id="rId153"/>
-    <hyperlink ref="E64" r:id="rId154"/>
-    <hyperlink ref="D64" r:id="rId155"/>
-    <hyperlink ref="D63" r:id="rId156"/>
-    <hyperlink ref="E63" r:id="rId157"/>
-    <hyperlink ref="D62" r:id="rId158"/>
-    <hyperlink ref="E62" r:id="rId159"/>
-    <hyperlink ref="D61" r:id="rId160"/>
-    <hyperlink ref="E61" r:id="rId161"/>
-    <hyperlink ref="D60" r:id="rId162"/>
-    <hyperlink ref="E60" r:id="rId163"/>
-    <hyperlink ref="E58" r:id="rId164"/>
-    <hyperlink ref="D58" r:id="rId165"/>
-    <hyperlink ref="D48" r:id="rId166"/>
-    <hyperlink ref="E48" r:id="rId167"/>
-    <hyperlink ref="D6" r:id="rId168"/>
-    <hyperlink ref="E6" r:id="rId169"/>
+    <hyperlink ref="E10" r:id="rId13"/>
+    <hyperlink ref="D10" r:id="rId14"/>
+    <hyperlink ref="D11" r:id="rId15" tooltip="Persistent link using digital object identifier"/>
+    <hyperlink ref="E11" r:id="rId16"/>
+    <hyperlink ref="D12" r:id="rId17"/>
+    <hyperlink ref="E12" r:id="rId18"/>
+    <hyperlink ref="E17" r:id="rId19"/>
+    <hyperlink ref="D17" r:id="rId20"/>
+    <hyperlink ref="D18" r:id="rId21"/>
+    <hyperlink ref="E18" r:id="rId22"/>
+    <hyperlink ref="D19" r:id="rId23"/>
+    <hyperlink ref="E19" r:id="rId24"/>
+    <hyperlink ref="D20" r:id="rId25"/>
+    <hyperlink ref="E20" r:id="rId26"/>
+    <hyperlink ref="D80" r:id="rId27"/>
+    <hyperlink ref="D81" r:id="rId28"/>
+    <hyperlink ref="D82" r:id="rId29"/>
+    <hyperlink ref="D83" r:id="rId30"/>
+    <hyperlink ref="D84" r:id="rId31"/>
+    <hyperlink ref="D85" r:id="rId32"/>
+    <hyperlink ref="D86" r:id="rId33"/>
+    <hyperlink ref="D87" r:id="rId34"/>
+    <hyperlink ref="D88" r:id="rId35"/>
+    <hyperlink ref="D89" r:id="rId36"/>
+    <hyperlink ref="D90" r:id="rId37"/>
+    <hyperlink ref="D91" r:id="rId38"/>
+    <hyperlink ref="D92" r:id="rId39"/>
+    <hyperlink ref="D93" r:id="rId40"/>
+    <hyperlink ref="D94" r:id="rId41"/>
+    <hyperlink ref="D95" r:id="rId42"/>
+    <hyperlink ref="D96" r:id="rId43"/>
+    <hyperlink ref="D97" r:id="rId44"/>
+    <hyperlink ref="D98" r:id="rId45"/>
+    <hyperlink ref="D99" r:id="rId46"/>
+    <hyperlink ref="D100" r:id="rId47"/>
+    <hyperlink ref="D101" r:id="rId48"/>
+    <hyperlink ref="D102" r:id="rId49"/>
+    <hyperlink ref="D103" r:id="rId50"/>
+    <hyperlink ref="D104" r:id="rId51"/>
+    <hyperlink ref="D105" r:id="rId52"/>
+    <hyperlink ref="D21" r:id="rId53"/>
+    <hyperlink ref="E21" r:id="rId54"/>
+    <hyperlink ref="H22" r:id="rId55"/>
+    <hyperlink ref="I22" r:id="rId56"/>
+    <hyperlink ref="E25" r:id="rId57"/>
+    <hyperlink ref="D25" r:id="rId58"/>
+    <hyperlink ref="E26" r:id="rId59"/>
+    <hyperlink ref="D26" r:id="rId60"/>
+    <hyperlink ref="D27" r:id="rId61"/>
+    <hyperlink ref="E27" r:id="rId62"/>
+    <hyperlink ref="E28" r:id="rId63"/>
+    <hyperlink ref="D29" r:id="rId64"/>
+    <hyperlink ref="E29" r:id="rId65"/>
+    <hyperlink ref="D30" r:id="rId66"/>
+    <hyperlink ref="E30" r:id="rId67"/>
+    <hyperlink ref="D31" r:id="rId68"/>
+    <hyperlink ref="E31" r:id="rId69"/>
+    <hyperlink ref="D32" r:id="rId70"/>
+    <hyperlink ref="E32" r:id="rId71"/>
+    <hyperlink ref="D33" r:id="rId72"/>
+    <hyperlink ref="E33" r:id="rId73"/>
+    <hyperlink ref="D36" r:id="rId74"/>
+    <hyperlink ref="E36" r:id="rId75"/>
+    <hyperlink ref="D37" r:id="rId76"/>
+    <hyperlink ref="E37" r:id="rId77"/>
+    <hyperlink ref="D38" r:id="rId78"/>
+    <hyperlink ref="E38" r:id="rId79"/>
+    <hyperlink ref="D39" r:id="rId80"/>
+    <hyperlink ref="E39" r:id="rId81"/>
+    <hyperlink ref="D40" r:id="rId82"/>
+    <hyperlink ref="E40" r:id="rId83"/>
+    <hyperlink ref="D42" r:id="rId84"/>
+    <hyperlink ref="E42" r:id="rId85"/>
+    <hyperlink ref="D41" r:id="rId86"/>
+    <hyperlink ref="E41" r:id="rId87"/>
+    <hyperlink ref="D43" r:id="rId88"/>
+    <hyperlink ref="E43" r:id="rId89"/>
+    <hyperlink ref="D52" r:id="rId90"/>
+    <hyperlink ref="E52" r:id="rId91"/>
+    <hyperlink ref="D45" r:id="rId92"/>
+    <hyperlink ref="E45" r:id="rId93"/>
+    <hyperlink ref="E46" r:id="rId94"/>
+    <hyperlink ref="D46" r:id="rId95"/>
+    <hyperlink ref="G48" r:id="rId96"/>
+    <hyperlink ref="D50" r:id="rId97"/>
+    <hyperlink ref="E50" r:id="rId98"/>
+    <hyperlink ref="D51" r:id="rId99"/>
+    <hyperlink ref="E51" r:id="rId100"/>
+    <hyperlink ref="E54" r:id="rId101"/>
+    <hyperlink ref="D54" r:id="rId102"/>
+    <hyperlink ref="D56" r:id="rId103"/>
+    <hyperlink ref="E56" r:id="rId104"/>
+    <hyperlink ref="E58" r:id="rId105"/>
+    <hyperlink ref="E78" r:id="rId106"/>
+    <hyperlink ref="D76" r:id="rId107"/>
+    <hyperlink ref="E76" r:id="rId108"/>
+    <hyperlink ref="D75" r:id="rId109"/>
+    <hyperlink ref="E75" r:id="rId110"/>
+    <hyperlink ref="E74" r:id="rId111"/>
+    <hyperlink ref="D74" r:id="rId112"/>
+    <hyperlink ref="E73" r:id="rId113"/>
+    <hyperlink ref="D73" r:id="rId114"/>
+    <hyperlink ref="D72" r:id="rId115"/>
+    <hyperlink ref="E72" r:id="rId116"/>
+    <hyperlink ref="D71" r:id="rId117"/>
+    <hyperlink ref="E71" r:id="rId118"/>
+    <hyperlink ref="D70" r:id="rId119"/>
+    <hyperlink ref="E70" r:id="rId120"/>
+    <hyperlink ref="D69" r:id="rId121"/>
+    <hyperlink ref="E69" r:id="rId122"/>
+    <hyperlink ref="E68" r:id="rId123"/>
+    <hyperlink ref="D68" r:id="rId124"/>
+    <hyperlink ref="E67" r:id="rId125"/>
+    <hyperlink ref="D67" r:id="rId126"/>
+    <hyperlink ref="D66" r:id="rId127"/>
+    <hyperlink ref="E66" r:id="rId128"/>
+    <hyperlink ref="E65" r:id="rId129"/>
+    <hyperlink ref="D65" r:id="rId130"/>
+    <hyperlink ref="D64" r:id="rId131"/>
+    <hyperlink ref="E64" r:id="rId132"/>
+    <hyperlink ref="D63" r:id="rId133"/>
+    <hyperlink ref="E63" r:id="rId134"/>
+    <hyperlink ref="D62" r:id="rId135"/>
+    <hyperlink ref="E62" r:id="rId136"/>
+    <hyperlink ref="D60" r:id="rId137"/>
+    <hyperlink ref="E60" r:id="rId138"/>
+    <hyperlink ref="E59" r:id="rId139"/>
+    <hyperlink ref="D59" r:id="rId140"/>
+    <hyperlink ref="D49" r:id="rId141"/>
+    <hyperlink ref="E49" r:id="rId142"/>
+    <hyperlink ref="D6" r:id="rId143"/>
+    <hyperlink ref="E6" r:id="rId144"/>
+    <hyperlink ref="E47" r:id="rId145"/>
+    <hyperlink ref="D47" r:id="rId146"/>
+    <hyperlink ref="D53" r:id="rId147"/>
+    <hyperlink ref="D77" r:id="rId148"/>
+    <hyperlink ref="E22" r:id="rId149"/>
+    <hyperlink ref="E23" r:id="rId150"/>
+    <hyperlink ref="D23" r:id="rId151"/>
+    <hyperlink ref="E91" r:id="rId152"/>
+    <hyperlink ref="E92" r:id="rId153"/>
+    <hyperlink ref="E105" r:id="rId154"/>
+    <hyperlink ref="E103" r:id="rId155"/>
+    <hyperlink ref="E102" r:id="rId156"/>
+    <hyperlink ref="E101" r:id="rId157"/>
+    <hyperlink ref="E100" r:id="rId158"/>
+    <hyperlink ref="E99" r:id="rId159"/>
+    <hyperlink ref="E98" r:id="rId160"/>
+    <hyperlink ref="E97" r:id="rId161"/>
+    <hyperlink ref="E96" r:id="rId162"/>
+    <hyperlink ref="E94" r:id="rId163"/>
+    <hyperlink ref="E93" r:id="rId164"/>
+    <hyperlink ref="E89" r:id="rId165"/>
+    <hyperlink ref="E88" r:id="rId166"/>
+    <hyperlink ref="E87" r:id="rId167"/>
+    <hyperlink ref="E86" r:id="rId168"/>
+    <hyperlink ref="E85" r:id="rId169"/>
+    <hyperlink ref="E84" r:id="rId170"/>
+    <hyperlink ref="E83" r:id="rId171"/>
+    <hyperlink ref="E82" r:id="rId172"/>
+    <hyperlink ref="E81" r:id="rId173"/>
+    <hyperlink ref="E80" r:id="rId174"/>
+    <hyperlink ref="E95" r:id="rId175"/>
+    <hyperlink ref="E104" r:id="rId176"/>
+    <hyperlink ref="E90" r:id="rId177"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId170"/>
+  <pageSetup orientation="portrait" r:id="rId178"/>
 </worksheet>
 </file>